--- a/GestionTurnos/GestionTurnos/Femsa/Importacion/importar.xlsx
+++ b/GestionTurnos/GestionTurnos/Femsa/Importacion/importar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Nombre</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Joaquin</t>
   </si>
   <si>
-    <t>Frenandez ¦ Galvez</t>
-  </si>
-  <si>
     <t>jfgalvez@towerplane.com</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>jcsanchez@towerplane.com</t>
   </si>
   <si>
-    <t>Sánchez ¦ Ferrándiz</t>
-  </si>
-  <si>
-    <t>García ¦ Sánchez</t>
-  </si>
-  <si>
     <t>ignacio@gmail.com</t>
   </si>
   <si>
@@ -89,6 +80,18 @@
   </si>
   <si>
     <t>TO123CD7.png</t>
+  </si>
+  <si>
+    <t>Fernandez  Galvez</t>
+  </si>
+  <si>
+    <t>Sanchez  Ferrándiz</t>
+  </si>
+  <si>
+    <t>Sanchez  Ferrandiz</t>
+  </si>
+  <si>
+    <t>Garcia  Sanchez</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,96 +497,96 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
